--- a/report_folder/report_4.1.b_wo.xlsx
+++ b/report_folder/report_4.1.b_wo.xlsx
@@ -4292,7 +4292,7 @@
         </is>
       </c>
       <c r="C17" s="13" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F17" s="14" t="inlineStr">
         <is>
@@ -4300,7 +4300,7 @@
         </is>
       </c>
       <c r="G17" s="35" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
@@ -4311,7 +4311,7 @@
       </c>
       <c r="C18" s="13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D18" s="14" t="inlineStr">
@@ -4336,7 +4336,7 @@
       </c>
       <c r="D19" s="26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F19" s="14" t="inlineStr">
@@ -4345,7 +4345,7 @@
         </is>
       </c>
       <c r="G19" s="35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -4366,7 +4366,7 @@
       </c>
       <c r="D20" s="25" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>85.7% der Karten</t>
         </is>
       </c>
     </row>
@@ -4375,7 +4375,7 @@
         <v>0</v>
       </c>
       <c r="B21" s="14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C21" s="36" t="inlineStr">
         <is>
@@ -4413,11 +4413,11 @@
       <c r="A27" s="14" t="n"/>
       <c r="B27" s="14" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>wirkungsorientierung: LogFrame Übersichtlichkeit für Neue 💩</t>
         </is>
       </c>
       <c r="C27" s="14" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D27" s="14" t="n"/>
       <c r="E27" s="35" t="n"/>
@@ -4428,11 +4428,11 @@
       <c r="A28" s="14" t="n"/>
       <c r="B28" s="14" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>google site zur wirkungsorientierung 💩</t>
         </is>
       </c>
       <c r="C28" s="14" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D28" s="14" t="n"/>
       <c r="E28" s="35" t="n"/>
@@ -4443,11 +4443,11 @@
       <c r="A29" s="14" t="n"/>
       <c r="B29" s="14" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>Wirkungsorientierung qualitative Datenanalyse</t>
         </is>
       </c>
       <c r="C29" s="14" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D29" s="14" t="n"/>
       <c r="E29" s="35" t="n"/>
@@ -4458,11 +4458,11 @@
       <c r="A30" s="14" t="n"/>
       <c r="B30" s="14" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>Wirkung auf der Ebene des Impacts (Gesundheit) messen 💩</t>
         </is>
       </c>
       <c r="C30" s="14" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D30" s="14" t="n"/>
       <c r="E30" s="35" t="n"/>
@@ -4473,11 +4473,11 @@
       <c r="A31" s="14" t="n"/>
       <c r="B31" s="14" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>Projektvorstellung auf Webseite aktualisieren ⭐️</t>
         </is>
       </c>
       <c r="C31" s="14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D31" s="14" t="n"/>
       <c r="E31" s="35" t="n"/>
@@ -4512,7 +4512,12 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>(28.6%)</t>
+        </is>
       </c>
     </row>
     <row r="35">
@@ -4521,8 +4526,13 @@
           <t>1.</t>
         </is>
       </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Laura Coordt</t>
+        </is>
+      </c>
       <c r="C35" s="14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36">
@@ -4531,8 +4541,13 @@
           <t>2.</t>
         </is>
       </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Leonie Ziller</t>
+        </is>
+      </c>
       <c r="C36" s="14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37">
@@ -4541,8 +4556,13 @@
           <t>3.</t>
         </is>
       </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Eva Greven</t>
+        </is>
+      </c>
       <c r="C37" s="14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38">
@@ -4551,8 +4571,13 @@
           <t>4.</t>
         </is>
       </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Wafic Sabbagh</t>
+        </is>
+      </c>
       <c r="C38" s="14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39">
@@ -4561,31 +4586,61 @@
           <t>5.</t>
         </is>
       </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Micha Landoll</t>
+        </is>
+      </c>
       <c r="C39" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Laura Coordt</t>
+        </is>
       </c>
       <c r="F39" s="14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40">
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Leonie Ziller</t>
+        </is>
+      </c>
       <c r="F40" s="14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41">
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Micha Landoll</t>
+        </is>
+      </c>
       <c r="F41" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Theresa Rinnert</t>
+        </is>
+      </c>
       <c r="F42" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Eva Greven</t>
+        </is>
+      </c>
       <c r="F43" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="46">
@@ -4608,8 +4663,13 @@
           <t>1.</t>
         </is>
       </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Leonie Ziller</t>
+        </is>
+      </c>
       <c r="C48" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -4633,8 +4693,11 @@
       </c>
       <c r="E50" s="14" t="inlineStr">
         <is>
-          <t>Aktivste Helfer</t>
-        </is>
+          <t>Eva Greven</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -4646,8 +4709,13 @@
       <c r="C51" s="14" t="n">
         <v>0</v>
       </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Wafic Sabbagh</t>
+        </is>
+      </c>
       <c r="F51" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -4688,11 +4756,11 @@
     <row r="60">
       <c r="A60" s="14" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>Leonie Ziller</t>
         </is>
       </c>
       <c r="B60" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F60" s="14" t="inlineStr">
         <is>
@@ -4700,7 +4768,7 @@
         </is>
       </c>
       <c r="G60" s="35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -4713,7 +4781,7 @@
         </is>
       </c>
       <c r="G61" s="35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -4759,10 +4827,15 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Micha Landoll</t>
+        </is>
       </c>
       <c r="G70" s="35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -4772,10 +4845,15 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Eva Greven</t>
+        </is>
       </c>
       <c r="G71" s="35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -4788,8 +4866,13 @@
         <f>B70-B71-B73</f>
         <v/>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Leonie Ziller</t>
+        </is>
+      </c>
       <c r="G72" s="35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -4799,10 +4882,15 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Wafic Sabbagh</t>
+        </is>
       </c>
       <c r="G73" s="35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">

--- a/report_folder/report_4.1.b_wo.xlsx
+++ b/report_folder/report_4.1.b_wo.xlsx
@@ -4292,7 +4292,7 @@
         </is>
       </c>
       <c r="C17" s="13" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F17" s="14" t="inlineStr">
         <is>
@@ -4300,7 +4300,7 @@
         </is>
       </c>
       <c r="G17" s="35" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18">
@@ -4311,7 +4311,7 @@
       </c>
       <c r="C18" s="13" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D18" s="14" t="inlineStr">
@@ -4325,7 +4325,7 @@
         </is>
       </c>
       <c r="G18" s="35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -4336,7 +4336,7 @@
       </c>
       <c r="D19" s="26" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>16</t>
         </is>
       </c>
       <c r="F19" s="14" t="inlineStr">
@@ -4345,7 +4345,7 @@
         </is>
       </c>
       <c r="G19" s="35" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
@@ -4366,7 +4366,7 @@
       </c>
       <c r="D20" s="25" t="inlineStr">
         <is>
-          <t>85.7% der Karten</t>
+          <t>35.7% der Karten</t>
         </is>
       </c>
     </row>
@@ -4375,7 +4375,7 @@
         <v>0</v>
       </c>
       <c r="B21" s="14" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C21" s="36" t="inlineStr">
         <is>
@@ -4413,11 +4413,11 @@
       <c r="A27" s="14" t="n"/>
       <c r="B27" s="14" t="inlineStr">
         <is>
-          <t>wirkungsorientierung: LogFrame Übersichtlichkeit für Neue 💩</t>
+          <t>Cost effectiveness der HASSCO-Technologien</t>
         </is>
       </c>
       <c r="C27" s="14" t="n">
-        <v>7</v>
+        <v>63</v>
       </c>
       <c r="D27" s="14" t="n"/>
       <c r="E27" s="35" t="n"/>
@@ -4428,11 +4428,11 @@
       <c r="A28" s="14" t="n"/>
       <c r="B28" s="14" t="inlineStr">
         <is>
-          <t>google site zur wirkungsorientierung 💩</t>
+          <t>Treffen mit Omar</t>
         </is>
       </c>
       <c r="C28" s="14" t="n">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="D28" s="14" t="n"/>
       <c r="E28" s="35" t="n"/>
@@ -4443,11 +4443,11 @@
       <c r="A29" s="14" t="n"/>
       <c r="B29" s="14" t="inlineStr">
         <is>
-          <t>Wirkungsorientierung qualitative Datenanalyse</t>
+          <t>Mini-Studien Gesundheit ⭐️</t>
         </is>
       </c>
       <c r="C29" s="14" t="n">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="D29" s="14" t="n"/>
       <c r="E29" s="35" t="n"/>
@@ -4458,11 +4458,11 @@
       <c r="A30" s="14" t="n"/>
       <c r="B30" s="14" t="inlineStr">
         <is>
-          <t>Wirkung auf der Ebene des Impacts (Gesundheit) messen 💩</t>
+          <t>Handbuch Design ⭐️</t>
         </is>
       </c>
       <c r="C30" s="14" t="n">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="D30" s="14" t="n"/>
       <c r="E30" s="35" t="n"/>
@@ -4473,11 +4473,11 @@
       <c r="A31" s="14" t="n"/>
       <c r="B31" s="14" t="inlineStr">
         <is>
-          <t>Projektvorstellung auf Webseite aktualisieren ⭐️</t>
+          <t>Wünsche an Finanzen</t>
         </is>
       </c>
       <c r="C31" s="14" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D31" s="14" t="n"/>
       <c r="E31" s="35" t="n"/>
@@ -4512,11 +4512,11 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>(28.6%)</t>
+          <t>(0.0%)</t>
         </is>
       </c>
     </row>
@@ -4528,11 +4528,11 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Laura Coordt</t>
+          <t>Leonie Ziller</t>
         </is>
       </c>
       <c r="C35" s="14" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36">
@@ -4543,11 +4543,11 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Leonie Ziller</t>
+          <t>Wafic Sabbagh</t>
         </is>
       </c>
       <c r="C36" s="14" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37">
@@ -4562,7 +4562,7 @@
         </is>
       </c>
       <c r="C37" s="14" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38">
@@ -4573,11 +4573,11 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Wafic Sabbagh</t>
+          <t>Micha Landoll</t>
         </is>
       </c>
       <c r="C38" s="14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -4586,47 +4586,42 @@
           <t>5.</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Micha Landoll</t>
-        </is>
-      </c>
       <c r="C39" s="14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Laura Coordt</t>
+          <t>Leonie Ziller</t>
         </is>
       </c>
       <c r="F39" s="14" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40">
       <c r="E40" t="inlineStr">
         <is>
-          <t>Leonie Ziller</t>
+          <t>Wafic Sabbagh</t>
         </is>
       </c>
       <c r="F40" s="14" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41">
       <c r="E41" t="inlineStr">
         <is>
-          <t>Micha Landoll</t>
+          <t>Eva Greven</t>
         </is>
       </c>
       <c r="F41" s="14" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42">
       <c r="E42" t="inlineStr">
         <is>
-          <t>Theresa Rinnert</t>
+          <t>Micha Landoll</t>
         </is>
       </c>
       <c r="F42" s="14" t="n">
@@ -4634,13 +4629,8 @@
       </c>
     </row>
     <row r="43">
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>Eva Greven</t>
-        </is>
-      </c>
       <c r="F43" s="14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="46">
@@ -4665,11 +4655,11 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Leonie Ziller</t>
+          <t>Eva Greven</t>
         </is>
       </c>
       <c r="C48" s="14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49">
@@ -4678,8 +4668,13 @@
           <t>2.</t>
         </is>
       </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Leonie Ziller</t>
+        </is>
+      </c>
       <c r="C49" s="14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
@@ -4688,12 +4683,17 @@
           <t>3.</t>
         </is>
       </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Wafic Sabbagh</t>
+        </is>
+      </c>
       <c r="C50" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E50" s="14" t="inlineStr">
         <is>
-          <t>Eva Greven</t>
+          <t>Wafic Sabbagh</t>
         </is>
       </c>
       <c r="F50" t="n">
@@ -4709,13 +4709,8 @@
       <c r="C51" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>Wafic Sabbagh</t>
-        </is>
-      </c>
       <c r="F51" s="14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -4760,33 +4755,43 @@
         </is>
       </c>
       <c r="B60" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="F60" s="14" t="inlineStr">
+        <is>
+          <t>Finale Karten</t>
+        </is>
+      </c>
+      <c r="G60" s="35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Eva Greven</t>
+        </is>
+      </c>
+      <c r="B61" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="F61" s="14" t="inlineStr">
+        <is>
+          <t>Pünktlich</t>
+        </is>
+      </c>
+      <c r="G61" s="35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Wafic Sabbagh</t>
+        </is>
+      </c>
+      <c r="B62" s="14" t="n">
         <v>1</v>
-      </c>
-      <c r="F60" s="14" t="inlineStr">
-        <is>
-          <t>Finale Karten</t>
-        </is>
-      </c>
-      <c r="G60" s="35" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="B61" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F61" s="14" t="inlineStr">
-        <is>
-          <t>Pünktlich</t>
-        </is>
-      </c>
-      <c r="G61" s="35" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="B62" s="14" t="n">
-        <v>0</v>
       </c>
       <c r="F62" s="14" t="inlineStr">
         <is>
@@ -4827,15 +4832,15 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Micha Landoll</t>
+          <t>Leonie Ziller</t>
         </is>
       </c>
       <c r="G70" s="35" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71">
@@ -4845,15 +4850,15 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Eva Greven</t>
+          <t>Wafic Sabbagh</t>
         </is>
       </c>
       <c r="G71" s="35" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72">
@@ -4868,7 +4873,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Leonie Ziller</t>
+          <t>Micha Landoll</t>
         </is>
       </c>
       <c r="G72" s="35" t="n">
@@ -4882,11 +4887,11 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Wafic Sabbagh</t>
+          <t>Eva Greven</t>
         </is>
       </c>
       <c r="G73" s="35" t="n">
